--- a/resultat/resultat_exploite.xlsx
+++ b/resultat/resultat_exploite.xlsx
@@ -27,10 +27,10 @@
     <t>Without LED</t>
   </si>
   <si>
-    <t>With led 40cm</t>
+    <t>With led 10cm</t>
   </si>
   <si>
-    <t>With led 10cm</t>
+    <t>With led 60cm</t>
   </si>
 </sst>
 </file>
@@ -924,7 +924,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>With led 40cm</c:v>
+                  <c:v>With led 60cm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3414,6 +3414,858 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="fr-FR"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>With led 60cm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$B$2:$B$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>488.28125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>976.5625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1464.84375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1953.125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2441.40625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2929.6875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3417.96875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3906.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4394.53125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4882.8125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5371.09375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5859.375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6347.65625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6835.9375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7324.21875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7812.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8300.78125</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8789.0625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9277.34375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9765.625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10253.90625</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10742.1875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11230.46875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11718.75</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12207.03125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12695.3125</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13183.59375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13671.875</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14160.15625</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14648.4375</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15136.71875</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15625</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16113.28125</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16601.5625</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17089.84375</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>17578.125</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18066.40625</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>18554.6875</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19042.96875</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>19531.25</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20019.53125</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20507.8125</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20996.09375</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>21484.375</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>21972.65625</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>22460.9375</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>22949.21875</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>23437.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>23925.78125</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>24414.0625</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>24902.34375</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>25390.625</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>25878.90625</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>26367.1875</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>26855.46875</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>27343.75</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>27832.03125</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>28320.3125</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>28808.59375</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>29296.875</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>29785.15625</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>30273.4375</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>30761.71875</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>31250</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>31738.28125</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>32226.5625</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>32714.84375</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>33203.125</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>33691.40625</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>34179.6875</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>34667.96875</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>35156.25</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>35644.53125</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>36132.8125</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>36621.09375</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>37109.375</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>37597.65625</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>38085.9375</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>38574.21875</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>39062.5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>39550.78125</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>40039.0625</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>40527.34375</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>41015.625</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>41503.90625</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>41992.1875</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>42480.46875</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>42968.75</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>43457.03125</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>43945.3125</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44433.59375</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44921.875</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45410.15625</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45898.4375</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>46386.71875</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>46875</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>47363.28125</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>47851.5625</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>48339.84375</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>48828.125</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>49316.40625</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>49804.6875</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>50292.96875</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>50781.25</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>51269.53125</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>51757.8125</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>52246.09375</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>52734.375</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>53222.65625</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>53710.9375</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>54199.21875</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>54687.5</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>55175.78125</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>55664.0625</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>56152.34375</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>56640.625</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>57128.90625</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>57617.1875</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>58105.46875</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>58593.75</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>59082.03125</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>59570.3125</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>60058.59375</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>60546.875</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>61035.15625</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>61523.4375</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>62011.71875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$D$2:$D$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>569</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="213010304"/>
+        <c:axId val="213008768"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="213010304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="213008768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="213008768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="213010304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3471,6 +4323,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Graphique 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3766,8 +4648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" activeCellId="1" sqref="B1:B129 E1:E129"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3783,10 +4665,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
